--- a/各地组播源汇总/陕西.xlsx
+++ b/各地组播源汇总/陕西.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="酒店组播" sheetId="1" r:id="rId1"/>
-    <sheet name="可用IP地址" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="电信组播" sheetId="4" r:id="rId2"/>
+    <sheet name="可用IP地址" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">电信组播!$A$1:$E$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">酒店组播!$A$1:$E$31</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="117">
   <si>
     <t>酒店电信组播</t>
   </si>
@@ -131,6 +133,265 @@
   </si>
   <si>
     <t>陕西秦腔</t>
+  </si>
+  <si>
+    <t>西安都市</t>
+  </si>
+  <si>
+    <t>西安商务资讯</t>
+  </si>
+  <si>
+    <t>西安影视</t>
+  </si>
+  <si>
+    <t>西安丝路</t>
+  </si>
+  <si>
+    <t>西安教育</t>
+  </si>
+  <si>
+    <t>汉中综合</t>
+  </si>
+  <si>
+    <t>洋县电视台</t>
+  </si>
+  <si>
+    <t>圆点导视</t>
+  </si>
+  <si>
+    <t>圆点生活</t>
+  </si>
+  <si>
+    <t>圆点影视</t>
+  </si>
+  <si>
+    <t>悦美生活</t>
+  </si>
+  <si>
+    <t>曲艺大观</t>
+  </si>
+  <si>
+    <t>睛彩三秦</t>
+  </si>
+  <si>
+    <t>北京|优优宝贝</t>
+  </si>
+  <si>
+    <t>北京|车迷频道</t>
+  </si>
+  <si>
+    <t>北京|环球旅游</t>
+  </si>
+  <si>
+    <t>北京|生态环境</t>
+  </si>
+  <si>
+    <t>CHC家庭影院</t>
+  </si>
+  <si>
+    <t>CHC高清电影</t>
+  </si>
+  <si>
+    <t>CHC动作电影</t>
+  </si>
+  <si>
+    <t>风云足球</t>
+  </si>
+  <si>
+    <t>女性时尚</t>
+  </si>
+  <si>
+    <t>第一剧场</t>
+  </si>
+  <si>
+    <t>风云剧场</t>
+  </si>
+  <si>
+    <t>风云音乐</t>
+  </si>
+  <si>
+    <t>怀旧剧场</t>
+  </si>
+  <si>
+    <t>高尔夫网球</t>
+  </si>
+  <si>
+    <t>央视文化精品</t>
+  </si>
+  <si>
+    <t>世界地理</t>
+  </si>
+  <si>
+    <t>央视台球</t>
+  </si>
+  <si>
+    <t>兵器科技</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.28:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.42:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.112.205.20:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.112.205.21:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.112.205.22:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.36:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.41:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.112.205.23:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.242:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.243:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.112.205.174:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.112.205.175:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.112.205.176:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.112.205.142:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.112.205.215:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.77:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.112.205.237:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.15:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.64:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.30:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.31:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.112.205.26:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.62:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.63:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.61:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.60:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.112.205.205:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.112.205.206:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.112.205.207:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.68:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.72:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.65:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.66:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.69:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.67:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.73:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.75:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.71:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.70:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.74:5140</t>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逗号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$陕西电信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电信组播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ningjingyuan.asia:8888</t>
+  </si>
+  <si>
+    <t>vmware.zixuan.live:55555</t>
   </si>
 </sst>
 </file>
@@ -173,8 +434,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -478,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1025,33 +1289,1548 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" t="s">
+        <v>106</v>
+      </c>
+      <c r="E54" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" t="s">
+        <v>91</v>
+      </c>
+      <c r="F55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" t="s">
+        <v>92</v>
+      </c>
+      <c r="F57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" t="s">
+        <v>93</v>
+      </c>
+      <c r="F58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" t="s">
+        <v>93</v>
+      </c>
+      <c r="F59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" t="s">
+        <v>94</v>
+      </c>
+      <c r="F61" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62" t="s">
+        <v>95</v>
+      </c>
+      <c r="F62" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63" t="s">
+        <v>95</v>
+      </c>
+      <c r="F63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" t="s">
+        <v>96</v>
+      </c>
+      <c r="F64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" t="s">
+        <v>107</v>
+      </c>
+      <c r="E65" t="s">
+        <v>96</v>
+      </c>
+      <c r="F65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" t="s">
+        <v>97</v>
+      </c>
+      <c r="F66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" t="s">
+        <v>97</v>
+      </c>
+      <c r="F67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" t="s">
+        <v>106</v>
+      </c>
+      <c r="E68" t="s">
+        <v>98</v>
+      </c>
+      <c r="F68" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" t="s">
+        <v>98</v>
+      </c>
+      <c r="F69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" t="s">
+        <v>106</v>
+      </c>
+      <c r="E70" t="s">
+        <v>99</v>
+      </c>
+      <c r="F70" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" t="s">
+        <v>107</v>
+      </c>
+      <c r="E71" t="s">
+        <v>99</v>
+      </c>
+      <c r="F71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" t="s">
+        <v>106</v>
+      </c>
+      <c r="E72" t="s">
+        <v>100</v>
+      </c>
+      <c r="F72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>60</v>
+      </c>
+      <c r="B73" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" t="s">
+        <v>100</v>
+      </c>
+      <c r="F73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74" t="s">
+        <v>105</v>
+      </c>
+      <c r="C74" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" t="s">
+        <v>101</v>
+      </c>
+      <c r="F74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B75" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" t="s">
+        <v>101</v>
+      </c>
+      <c r="F75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>62</v>
+      </c>
+      <c r="B76" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" t="s">
+        <v>106</v>
+      </c>
+      <c r="E76" t="s">
+        <v>102</v>
+      </c>
+      <c r="F76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" t="s">
+        <v>105</v>
+      </c>
+      <c r="C77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" t="s">
+        <v>107</v>
+      </c>
+      <c r="E77" t="s">
+        <v>102</v>
+      </c>
+      <c r="F77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" t="s">
+        <v>106</v>
+      </c>
+      <c r="E78" t="s">
+        <v>103</v>
+      </c>
+      <c r="F78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B79" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" t="s">
+        <v>103</v>
+      </c>
+      <c r="F79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" t="s">
+        <v>106</v>
+      </c>
+      <c r="E80" t="s">
+        <v>104</v>
+      </c>
+      <c r="F80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>64</v>
+      </c>
+      <c r="B81" t="s">
+        <v>105</v>
+      </c>
+      <c r="C81" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" t="s">
+        <v>107</v>
+      </c>
+      <c r="E81" t="s">
+        <v>104</v>
+      </c>
+      <c r="F81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E81"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1063,7 +2842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/各地组播源汇总/陕西.xlsx
+++ b/各地组播源汇总/陕西.xlsx
@@ -11,9 +11,10 @@
     <sheet name="电信组播" sheetId="4" r:id="rId2"/>
     <sheet name="可用IP地址" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">电信组播!$A$1:$E$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">电信组播!$A$1:$E$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">酒店组播!$A$1:$E$31</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="125">
   <si>
     <t>酒店电信组播</t>
   </si>
@@ -141,9 +142,6 @@
     <t>西安商务资讯</t>
   </si>
   <si>
-    <t>西安影视</t>
-  </si>
-  <si>
     <t>西安丝路</t>
   </si>
   <si>
@@ -156,78 +154,6 @@
     <t>洋县电视台</t>
   </si>
   <si>
-    <t>圆点导视</t>
-  </si>
-  <si>
-    <t>圆点生活</t>
-  </si>
-  <si>
-    <t>圆点影视</t>
-  </si>
-  <si>
-    <t>悦美生活</t>
-  </si>
-  <si>
-    <t>曲艺大观</t>
-  </si>
-  <si>
-    <t>睛彩三秦</t>
-  </si>
-  <si>
-    <t>北京|优优宝贝</t>
-  </si>
-  <si>
-    <t>北京|车迷频道</t>
-  </si>
-  <si>
-    <t>北京|环球旅游</t>
-  </si>
-  <si>
-    <t>北京|生态环境</t>
-  </si>
-  <si>
-    <t>CHC家庭影院</t>
-  </si>
-  <si>
-    <t>CHC高清电影</t>
-  </si>
-  <si>
-    <t>CHC动作电影</t>
-  </si>
-  <si>
-    <t>风云足球</t>
-  </si>
-  <si>
-    <t>女性时尚</t>
-  </si>
-  <si>
-    <t>第一剧场</t>
-  </si>
-  <si>
-    <t>风云剧场</t>
-  </si>
-  <si>
-    <t>风云音乐</t>
-  </si>
-  <si>
-    <t>怀旧剧场</t>
-  </si>
-  <si>
-    <t>高尔夫网球</t>
-  </si>
-  <si>
-    <t>央视文化精品</t>
-  </si>
-  <si>
-    <t>世界地理</t>
-  </si>
-  <si>
-    <t>央视台球</t>
-  </si>
-  <si>
-    <t>兵器科技</t>
-  </si>
-  <si>
     <t>/rtp/239.111.205.28:5140</t>
   </si>
   <si>
@@ -276,76 +202,10 @@
     <t>/rtp/239.111.205.77:5140</t>
   </si>
   <si>
-    <t>/rtp/239.112.205.237:5140</t>
-  </si>
-  <si>
-    <t>/rtp/239.111.205.15:5140</t>
-  </si>
-  <si>
-    <t>/rtp/239.111.205.64:5140</t>
-  </si>
-  <si>
     <t>/rtp/239.111.205.30:5140</t>
   </si>
   <si>
     <t>/rtp/239.111.205.31:5140</t>
-  </si>
-  <si>
-    <t>/rtp/239.112.205.26:5140</t>
-  </si>
-  <si>
-    <t>/rtp/239.111.205.62:5140</t>
-  </si>
-  <si>
-    <t>/rtp/239.111.205.63:5140</t>
-  </si>
-  <si>
-    <t>/rtp/239.111.205.61:5140</t>
-  </si>
-  <si>
-    <t>/rtp/239.111.205.60:5140</t>
-  </si>
-  <si>
-    <t>/rtp/239.112.205.205:5140</t>
-  </si>
-  <si>
-    <t>/rtp/239.112.205.206:5140</t>
-  </si>
-  <si>
-    <t>/rtp/239.112.205.207:5140</t>
-  </si>
-  <si>
-    <t>/rtp/239.111.205.68:5140</t>
-  </si>
-  <si>
-    <t>/rtp/239.111.205.72:5140</t>
-  </si>
-  <si>
-    <t>/rtp/239.111.205.65:5140</t>
-  </si>
-  <si>
-    <t>/rtp/239.111.205.66:5140</t>
-  </si>
-  <si>
-    <t>/rtp/239.111.205.69:5140</t>
-  </si>
-  <si>
-    <t>/rtp/239.111.205.67:5140</t>
-  </si>
-  <si>
-    <t>/rtp/239.111.205.73:5140</t>
-  </si>
-  <si>
-    <t>/rtp/239.111.205.75:5140</t>
-  </si>
-  <si>
-    <t>/rtp/239.111.205.71:5140</t>
-  </si>
-  <si>
-    <t>/rtp/239.111.205.70:5140</t>
-  </si>
-  <si>
-    <t>/rtp/239.111.205.74:5140</t>
   </si>
   <si>
     <t>,</t>
@@ -380,10 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$陕西电信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电信组播</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,6 +248,194 @@
   </si>
   <si>
     <t>vmware.zixuan.live:55555</t>
+  </si>
+  <si>
+    <t>西安乐购购物</t>
+  </si>
+  <si>
+    <t>西安戏剧影视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麟游电视台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眉县新闻综合</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.81:5140</t>
+  </si>
+  <si>
+    <t>千阳</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.250:5140</t>
+  </si>
+  <si>
+    <t>商洛综合</t>
+  </si>
+  <si>
+    <t>/rtp/239.112.205.189:5140</t>
+  </si>
+  <si>
+    <t>太白</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.251:5140</t>
+  </si>
+  <si>
+    <t>渭南新闻综合</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.19:5140</t>
+  </si>
+  <si>
+    <t>榆林综合</t>
+  </si>
+  <si>
+    <t>/rtp/239.110.205.42:9882</t>
+  </si>
+  <si>
+    <t>紫阳综合</t>
+  </si>
+  <si>
+    <t>/rtp/239.112.205.220:5140</t>
+  </si>
+  <si>
+    <t>宝鸡综合</t>
+  </si>
+  <si>
+    <t>/rtp/239.112.205.143:5140</t>
+  </si>
+  <si>
+    <t>宝鸡公共</t>
+  </si>
+  <si>
+    <t>/rtp/239.112.205.148:5140</t>
+  </si>
+  <si>
+    <t>扶风</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.80:5140</t>
+  </si>
+  <si>
+    <t>凤翔</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.244:5140</t>
+  </si>
+  <si>
+    <t>陈仓</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.245:5140</t>
+  </si>
+  <si>
+    <t>城固</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.79:5140</t>
+  </si>
+  <si>
+    <t>淳化</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.97:5140</t>
+  </si>
+  <si>
+    <t>佛坪综合</t>
+  </si>
+  <si>
+    <t>/rtp/239.112.205.229:5140</t>
+  </si>
+  <si>
+    <t>合阳</t>
+  </si>
+  <si>
+    <t>/rtp/239.112.205.190:5140</t>
+  </si>
+  <si>
+    <t>岚皋</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.248:5140</t>
+  </si>
+  <si>
+    <t>/rtp/239.111.205.248:514</t>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麟游电视台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千阳电视台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太白电视台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扶风电视台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤翔电视台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈仓电视台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岚皋电视台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合阳电视台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淳化电视台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城固电视台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1289,33 +1333,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1323,16 +1369,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1340,16 +1386,16 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1357,16 +1403,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -1374,16 +1420,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1391,16 +1437,16 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1408,16 +1454,16 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1425,16 +1471,16 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -1442,16 +1488,16 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1459,16 +1505,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -1476,16 +1522,16 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -1493,16 +1539,16 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -1510,16 +1556,16 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1527,16 +1573,16 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -1544,16 +1590,16 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -1561,16 +1607,16 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -1578,16 +1624,16 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -1595,16 +1641,16 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -1612,16 +1658,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -1629,16 +1675,16 @@
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -1646,16 +1692,16 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -1663,16 +1709,16 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -1680,1114 +1726,836 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
         <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="B46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="B48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" t="s">
-        <v>106</v>
-      </c>
-      <c r="E44" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" t="s">
-        <v>107</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" t="s">
-        <v>106</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" t="s">
         <v>87</v>
       </c>
-      <c r="F46" t="s">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" t="s">
-        <v>107</v>
-      </c>
-      <c r="E47" t="s">
-        <v>87</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="E54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" t="s">
+        <v>114</v>
+      </c>
+      <c r="E55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" t="s">
-        <v>88</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="E56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" t="s">
+        <v>114</v>
+      </c>
+      <c r="E57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" t="s">
-        <v>88</v>
-      </c>
-      <c r="F49" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" t="s">
-        <v>23</v>
-      </c>
-      <c r="D50" t="s">
-        <v>106</v>
-      </c>
-      <c r="E50" t="s">
-        <v>89</v>
-      </c>
-      <c r="F50" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" t="s">
-        <v>89</v>
-      </c>
-      <c r="F51" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C52" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" t="s">
-        <v>106</v>
-      </c>
-      <c r="E52" t="s">
-        <v>90</v>
-      </c>
-      <c r="F52" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53" t="s">
-        <v>90</v>
-      </c>
-      <c r="F53" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54" t="s">
-        <v>106</v>
-      </c>
-      <c r="E54" t="s">
-        <v>91</v>
-      </c>
-      <c r="F54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" t="s">
-        <v>23</v>
-      </c>
-      <c r="D55" t="s">
-        <v>107</v>
-      </c>
-      <c r="E55" t="s">
-        <v>91</v>
-      </c>
-      <c r="F55" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" t="s">
-        <v>106</v>
-      </c>
-      <c r="E56" t="s">
-        <v>92</v>
-      </c>
-      <c r="F56" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" t="s">
-        <v>105</v>
-      </c>
-      <c r="C57" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" t="s">
-        <v>107</v>
-      </c>
-      <c r="E57" t="s">
-        <v>92</v>
-      </c>
-      <c r="F57" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58" t="s">
-        <v>106</v>
       </c>
       <c r="E58" t="s">
         <v>93</v>
       </c>
-      <c r="F58" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="D59" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E59" t="s">
         <v>93</v>
       </c>
-      <c r="F59" t="s">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="E60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" t="s">
+        <v>113</v>
+      </c>
+      <c r="E62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" t="s">
+        <v>112</v>
+      </c>
+      <c r="D63" t="s">
+        <v>114</v>
+      </c>
+      <c r="E63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" t="s">
+        <v>114</v>
+      </c>
+      <c r="E65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" t="s">
+        <v>112</v>
+      </c>
+      <c r="D68" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" t="s">
+        <v>114</v>
+      </c>
+      <c r="E69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" t="s">
+        <v>112</v>
+      </c>
+      <c r="D70" t="s">
+        <v>113</v>
+      </c>
+      <c r="E70" t="s">
         <v>105</v>
       </c>
-      <c r="C60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60" t="s">
-        <v>106</v>
-      </c>
-      <c r="E60" t="s">
-        <v>94</v>
-      </c>
-      <c r="F60" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" t="s">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" t="s">
+        <v>114</v>
+      </c>
+      <c r="E71" t="s">
         <v>105</v>
       </c>
-      <c r="C61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" t="s">
-        <v>107</v>
-      </c>
-      <c r="E61" t="s">
-        <v>94</v>
-      </c>
-      <c r="F61" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>55</v>
-      </c>
-      <c r="B62" t="s">
-        <v>105</v>
-      </c>
-      <c r="C62" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" t="s">
-        <v>106</v>
-      </c>
-      <c r="E62" t="s">
-        <v>95</v>
-      </c>
-      <c r="F62" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" t="s">
-        <v>105</v>
-      </c>
-      <c r="C63" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63" t="s">
-        <v>107</v>
-      </c>
-      <c r="E63" t="s">
-        <v>95</v>
-      </c>
-      <c r="F63" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" t="s">
-        <v>105</v>
-      </c>
-      <c r="C64" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" t="s">
-        <v>106</v>
-      </c>
-      <c r="E64" t="s">
-        <v>96</v>
-      </c>
-      <c r="F64" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" t="s">
-        <v>105</v>
-      </c>
-      <c r="C65" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65" t="s">
-        <v>107</v>
-      </c>
-      <c r="E65" t="s">
-        <v>96</v>
-      </c>
-      <c r="F65" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>57</v>
-      </c>
-      <c r="B66" t="s">
-        <v>105</v>
-      </c>
-      <c r="C66" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" t="s">
-        <v>106</v>
-      </c>
-      <c r="E66" t="s">
-        <v>97</v>
-      </c>
-      <c r="F66" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67" t="s">
-        <v>105</v>
-      </c>
-      <c r="C67" t="s">
-        <v>23</v>
-      </c>
-      <c r="D67" t="s">
-        <v>107</v>
-      </c>
-      <c r="E67" t="s">
-        <v>97</v>
-      </c>
-      <c r="F67" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>58</v>
-      </c>
-      <c r="B68" t="s">
-        <v>105</v>
-      </c>
-      <c r="C68" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" t="s">
-        <v>106</v>
-      </c>
-      <c r="E68" t="s">
-        <v>98</v>
-      </c>
-      <c r="F68" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>58</v>
-      </c>
-      <c r="B69" t="s">
-        <v>105</v>
-      </c>
-      <c r="C69" t="s">
-        <v>23</v>
-      </c>
-      <c r="D69" t="s">
-        <v>107</v>
-      </c>
-      <c r="E69" t="s">
-        <v>98</v>
-      </c>
-      <c r="F69" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>59</v>
-      </c>
-      <c r="B70" t="s">
-        <v>105</v>
-      </c>
-      <c r="C70" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70" t="s">
-        <v>106</v>
-      </c>
-      <c r="E70" t="s">
-        <v>99</v>
-      </c>
-      <c r="F70" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
-        <v>59</v>
-      </c>
-      <c r="B71" t="s">
-        <v>105</v>
-      </c>
-      <c r="C71" t="s">
-        <v>23</v>
-      </c>
-      <c r="D71" t="s">
-        <v>107</v>
-      </c>
-      <c r="E71" t="s">
-        <v>99</v>
-      </c>
-      <c r="F71" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>60</v>
-      </c>
-      <c r="B72" t="s">
-        <v>105</v>
-      </c>
-      <c r="C72" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72" t="s">
-        <v>106</v>
-      </c>
-      <c r="E72" t="s">
-        <v>100</v>
-      </c>
-      <c r="F72" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>60</v>
-      </c>
-      <c r="B73" t="s">
-        <v>105</v>
-      </c>
-      <c r="C73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D73" t="s">
-        <v>107</v>
-      </c>
-      <c r="E73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F73" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>61</v>
-      </c>
-      <c r="B74" t="s">
-        <v>105</v>
-      </c>
-      <c r="C74" t="s">
-        <v>23</v>
-      </c>
-      <c r="D74" t="s">
-        <v>106</v>
-      </c>
-      <c r="E74" t="s">
-        <v>101</v>
-      </c>
-      <c r="F74" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>61</v>
-      </c>
-      <c r="B75" t="s">
-        <v>105</v>
-      </c>
-      <c r="C75" t="s">
-        <v>23</v>
-      </c>
-      <c r="D75" t="s">
-        <v>107</v>
-      </c>
-      <c r="E75" t="s">
-        <v>101</v>
-      </c>
-      <c r="F75" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
-        <v>62</v>
-      </c>
-      <c r="B76" t="s">
-        <v>105</v>
-      </c>
-      <c r="C76" t="s">
-        <v>23</v>
-      </c>
-      <c r="D76" t="s">
-        <v>106</v>
-      </c>
-      <c r="E76" t="s">
-        <v>102</v>
-      </c>
-      <c r="F76" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
-        <v>62</v>
-      </c>
-      <c r="B77" t="s">
-        <v>105</v>
-      </c>
-      <c r="C77" t="s">
-        <v>23</v>
-      </c>
-      <c r="D77" t="s">
-        <v>107</v>
-      </c>
-      <c r="E77" t="s">
-        <v>102</v>
-      </c>
-      <c r="F77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>63</v>
-      </c>
-      <c r="B78" t="s">
-        <v>105</v>
-      </c>
-      <c r="C78" t="s">
-        <v>23</v>
-      </c>
-      <c r="D78" t="s">
-        <v>106</v>
-      </c>
-      <c r="E78" t="s">
-        <v>103</v>
-      </c>
-      <c r="F78" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
-        <v>63</v>
-      </c>
-      <c r="B79" t="s">
-        <v>105</v>
-      </c>
-      <c r="C79" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" t="s">
-        <v>107</v>
-      </c>
-      <c r="E79" t="s">
-        <v>103</v>
-      </c>
-      <c r="F79" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>64</v>
-      </c>
-      <c r="B80" t="s">
-        <v>105</v>
-      </c>
-      <c r="C80" t="s">
-        <v>23</v>
-      </c>
-      <c r="D80" t="s">
-        <v>106</v>
-      </c>
-      <c r="E80" t="s">
-        <v>104</v>
-      </c>
-      <c r="F80" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
-        <v>64</v>
-      </c>
-      <c r="B81" t="s">
-        <v>105</v>
-      </c>
-      <c r="C81" t="s">
-        <v>23</v>
-      </c>
-      <c r="D81" t="s">
-        <v>107</v>
-      </c>
-      <c r="E81" t="s">
-        <v>104</v>
-      </c>
-      <c r="F81" t="s">
-        <v>113</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E81"/>
+  <autoFilter ref="A1:E71"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2811,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -2819,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -2827,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -2844,13 +2612,1813 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" t="s">
+        <v>109</v>
+      </c>
+      <c r="E51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" t="s">
+        <v>110</v>
+      </c>
+      <c r="E56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" t="s">
+        <v>110</v>
+      </c>
+      <c r="E58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" t="s">
+        <v>110</v>
+      </c>
+      <c r="E60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" t="s">
+        <v>109</v>
+      </c>
+      <c r="E61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" t="s">
+        <v>110</v>
+      </c>
+      <c r="E62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" t="s">
+        <v>110</v>
+      </c>
+      <c r="E64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" t="s">
+        <v>109</v>
+      </c>
+      <c r="E65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>104</v>
+      </c>
+      <c r="B66" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" t="s">
+        <v>110</v>
+      </c>
+      <c r="E66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67" t="s">
+        <v>109</v>
+      </c>
+      <c r="E67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68" t="s">
+        <v>110</v>
+      </c>
+      <c r="E68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>